--- a/hw2_requirements.xlsx
+++ b/hw2_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenfan/Documents/2022_Fall/ECE568/homeworks/homework2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0560CEDB-6B53-7140-903E-373B3F69AB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C22AAC-02E7-DA45-99A0-454672491147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="760" windowWidth="24800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Extra note to TA</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>write in danger log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong exception </t>
   </si>
 </sst>
 </file>
@@ -480,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -563,6 +566,9 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -623,6 +629,12 @@
     <row r="16" spans="1:3" ht="31" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" customHeight="1">
